--- a/Code/Results/Cases/Case_4_94/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_94/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009133850419201</v>
+        <v>1.039748046762647</v>
       </c>
       <c r="D2">
-        <v>1.030422984032381</v>
+        <v>1.047694317005407</v>
       </c>
       <c r="E2">
-        <v>1.027235695757716</v>
+        <v>1.05303349684609</v>
       </c>
       <c r="F2">
-        <v>1.034785904337985</v>
+        <v>1.059851346094653</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051958413008891</v>
+        <v>1.03834399213758</v>
       </c>
       <c r="J2">
-        <v>1.031044759926262</v>
+        <v>1.044838385046212</v>
       </c>
       <c r="K2">
-        <v>1.041474144607133</v>
+        <v>1.050456238647997</v>
       </c>
       <c r="L2">
-        <v>1.038328198887155</v>
+        <v>1.055780583095578</v>
       </c>
       <c r="M2">
-        <v>1.045780989211528</v>
+        <v>1.062579723669453</v>
       </c>
       <c r="N2">
-        <v>1.014130458694759</v>
+        <v>1.018852173824719</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013764440086016</v>
+        <v>1.040726314777273</v>
       </c>
       <c r="D3">
-        <v>1.034069463247961</v>
+        <v>1.048472650231064</v>
       </c>
       <c r="E3">
-        <v>1.031427075268028</v>
+        <v>1.05397132229688</v>
       </c>
       <c r="F3">
-        <v>1.039082733041338</v>
+        <v>1.060807409537149</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053319913942114</v>
+        <v>1.03853798902463</v>
       </c>
       <c r="J3">
-        <v>1.033886778292485</v>
+        <v>1.045461842691475</v>
       </c>
       <c r="K3">
-        <v>1.044284215034218</v>
+        <v>1.051046554627963</v>
       </c>
       <c r="L3">
-        <v>1.041673032028462</v>
+        <v>1.056531052649202</v>
       </c>
       <c r="M3">
-        <v>1.049238820578909</v>
+        <v>1.063349739224914</v>
       </c>
       <c r="N3">
-        <v>1.015083791258636</v>
+        <v>1.019060091420595</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016698424168667</v>
+        <v>1.041359608897503</v>
       </c>
       <c r="D4">
-        <v>1.03637966870698</v>
+        <v>1.04897611339514</v>
       </c>
       <c r="E4">
-        <v>1.034087683349044</v>
+        <v>1.054578732856905</v>
       </c>
       <c r="F4">
-        <v>1.041809210086818</v>
+        <v>1.061426493631996</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054167439440149</v>
+        <v>1.038661701488782</v>
       </c>
       <c r="J4">
-        <v>1.035684417429142</v>
+        <v>1.045864941083136</v>
       </c>
       <c r="K4">
-        <v>1.046057988217233</v>
+        <v>1.051427699749322</v>
       </c>
       <c r="L4">
-        <v>1.043791396649855</v>
+        <v>1.057016604298479</v>
       </c>
       <c r="M4">
-        <v>1.051427920995559</v>
+        <v>1.06384781341129</v>
       </c>
       <c r="N4">
-        <v>1.015686664860682</v>
+        <v>1.019194478014975</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017917489826536</v>
+        <v>1.041625914287945</v>
       </c>
       <c r="D5">
-        <v>1.0373394419463</v>
+        <v>1.049187727247312</v>
       </c>
       <c r="E5">
-        <v>1.035194301976015</v>
+        <v>1.054834224734483</v>
       </c>
       <c r="F5">
-        <v>1.042942966528947</v>
+        <v>1.061686862445847</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054515900365417</v>
+        <v>1.038713274691157</v>
       </c>
       <c r="J5">
-        <v>1.03643055771544</v>
+        <v>1.046034326125016</v>
       </c>
       <c r="K5">
-        <v>1.046793327460455</v>
+        <v>1.051587733762158</v>
       </c>
       <c r="L5">
-        <v>1.044671306661259</v>
+        <v>1.057220716717538</v>
       </c>
       <c r="M5">
-        <v>1.052337009417077</v>
+        <v>1.064057160293259</v>
       </c>
       <c r="N5">
-        <v>1.015936863243663</v>
+        <v>1.019250937912808</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.01812134810876</v>
+        <v>1.041670632133337</v>
       </c>
       <c r="D6">
-        <v>1.037499931771301</v>
+        <v>1.049223255641274</v>
       </c>
       <c r="E6">
-        <v>1.035379422251036</v>
+        <v>1.054877130915304</v>
       </c>
       <c r="F6">
-        <v>1.043132611253125</v>
+        <v>1.061730585688692</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054573953612144</v>
+        <v>1.038721908500968</v>
       </c>
       <c r="J6">
-        <v>1.036555284443324</v>
+        <v>1.046062762049092</v>
       </c>
       <c r="K6">
-        <v>1.046916195528072</v>
+        <v>1.051614592455765</v>
       </c>
       <c r="L6">
-        <v>1.044818432832968</v>
+        <v>1.057254987271404</v>
       </c>
       <c r="M6">
-        <v>1.052489002313328</v>
+        <v>1.064092307974283</v>
       </c>
       <c r="N6">
-        <v>1.015978684932825</v>
+        <v>1.019260415644495</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016714769200171</v>
+        <v>1.041363167014737</v>
       </c>
       <c r="D7">
-        <v>1.036392537709722</v>
+        <v>1.048978941156647</v>
       </c>
       <c r="E7">
-        <v>1.03410251625378</v>
+        <v>1.054582146217032</v>
       </c>
       <c r="F7">
-        <v>1.041824407767263</v>
+        <v>1.061429972278362</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054172126173053</v>
+        <v>1.038662392324542</v>
       </c>
       <c r="J7">
-        <v>1.035694424665294</v>
+        <v>1.045867204719999</v>
       </c>
       <c r="K7">
-        <v>1.046067854150336</v>
+        <v>1.051429838916371</v>
       </c>
       <c r="L7">
-        <v>1.043803195443464</v>
+        <v>1.057019331712856</v>
       </c>
       <c r="M7">
-        <v>1.051440111854142</v>
+        <v>1.063850610886842</v>
       </c>
       <c r="N7">
-        <v>1.015690020662491</v>
+        <v>1.01919523257764</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010712015657592</v>
+        <v>1.040078596686323</v>
       </c>
       <c r="D8">
-        <v>1.031665766268529</v>
+        <v>1.047957392912844</v>
       </c>
       <c r="E8">
-        <v>1.028663118338135</v>
+        <v>1.053350319659595</v>
       </c>
       <c r="F8">
-        <v>1.036249461052557</v>
+        <v>1.060174358924285</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052425571854627</v>
+        <v>1.038409930024396</v>
       </c>
       <c r="J8">
-        <v>1.03201398347994</v>
+        <v>1.045049151324848</v>
       </c>
       <c r="K8">
-        <v>1.042433230449217</v>
+        <v>1.050655909715233</v>
       </c>
       <c r="L8">
-        <v>1.039468337351411</v>
+        <v>1.056034218051828</v>
       </c>
       <c r="M8">
-        <v>1.04695981603873</v>
+        <v>1.062839990130493</v>
       </c>
       <c r="N8">
-        <v>1.014455602453405</v>
+        <v>1.01892247141613</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9996314857556431</v>
+        <v>1.037817266637019</v>
       </c>
       <c r="D9">
-        <v>1.022941420348121</v>
+        <v>1.046156043444106</v>
       </c>
       <c r="E9">
-        <v>1.018663500845627</v>
+        <v>1.051184135404372</v>
       </c>
       <c r="F9">
-        <v>1.025992295484698</v>
+        <v>1.057965283892495</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049083514810758</v>
+        <v>1.037951175198821</v>
       </c>
       <c r="J9">
-        <v>1.025197263925267</v>
+        <v>1.043605218730754</v>
       </c>
       <c r="K9">
-        <v>1.035672940036766</v>
+        <v>1.049285842981846</v>
       </c>
       <c r="L9">
-        <v>1.03146086287381</v>
+        <v>1.054297963381674</v>
       </c>
       <c r="M9">
-        <v>1.038677286059521</v>
+        <v>1.061057834522831</v>
       </c>
       <c r="N9">
-        <v>1.012168387012522</v>
+        <v>1.018440696557723</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9918680556291107</v>
+        <v>1.036311264091208</v>
       </c>
       <c r="D10">
-        <v>1.016833413584932</v>
+        <v>1.044954374980873</v>
       </c>
       <c r="E10">
-        <v>1.011688010248713</v>
+        <v>1.049743070447119</v>
       </c>
       <c r="F10">
-        <v>1.018831656966146</v>
+        <v>1.056494972367548</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046665486125719</v>
+        <v>1.037636040890978</v>
       </c>
       <c r="J10">
-        <v>1.020408069362178</v>
+        <v>1.042641018239332</v>
       </c>
       <c r="K10">
-        <v>1.03090524459502</v>
+        <v>1.048368282763213</v>
       </c>
       <c r="L10">
-        <v>1.025849392748118</v>
+        <v>1.053140274708251</v>
       </c>
       <c r="M10">
-        <v>1.032869025471809</v>
+        <v>1.059868908233322</v>
       </c>
       <c r="N10">
-        <v>1.010561077297419</v>
+        <v>1.018118768657838</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9884078108915338</v>
+        <v>1.035659523956296</v>
       </c>
       <c r="D11">
-        <v>1.014113050072607</v>
+        <v>1.044433871671409</v>
       </c>
       <c r="E11">
-        <v>1.008586901512018</v>
+        <v>1.049119811872187</v>
       </c>
       <c r="F11">
-        <v>1.015646973755947</v>
+        <v>1.055858895510704</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045570413170266</v>
+        <v>1.037497386456943</v>
       </c>
       <c r="J11">
-        <v>1.018270918603981</v>
+        <v>1.042223143784029</v>
       </c>
       <c r="K11">
-        <v>1.028773633989498</v>
+        <v>1.047969988492163</v>
       </c>
       <c r="L11">
-        <v>1.023348678159218</v>
+        <v>1.052638949941539</v>
       </c>
       <c r="M11">
-        <v>1.030279722975647</v>
+        <v>1.059353907081846</v>
       </c>
       <c r="N11">
-        <v>1.009843780285539</v>
+        <v>1.017979197428263</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9871068432822162</v>
+        <v>1.035417494618933</v>
       </c>
       <c r="D12">
-        <v>1.013090651852122</v>
+        <v>1.044240508718657</v>
       </c>
       <c r="E12">
-        <v>1.007422215234052</v>
+        <v>1.048888416876817</v>
       </c>
       <c r="F12">
-        <v>1.014450713115928</v>
+        <v>1.055622716094655</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045156160038126</v>
+        <v>1.037445554173269</v>
       </c>
       <c r="J12">
-        <v>1.017467068675291</v>
+        <v>1.042067871833147</v>
       </c>
       <c r="K12">
-        <v>1.027971280738368</v>
+        <v>1.047821897195548</v>
       </c>
       <c r="L12">
-        <v>1.022408585533622</v>
+        <v>1.052452730750161</v>
       </c>
       <c r="M12">
-        <v>1.029306199941822</v>
+        <v>1.059162585364358</v>
       </c>
       <c r="N12">
-        <v>1.009573979765453</v>
+        <v>1.017927328551582</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9873866292659353</v>
+        <v>1.035469408192008</v>
       </c>
       <c r="D13">
-        <v>1.013310509593005</v>
+        <v>1.044281986834707</v>
       </c>
       <c r="E13">
-        <v>1.007672634841902</v>
+        <v>1.048938046850164</v>
       </c>
       <c r="F13">
-        <v>1.014707929894302</v>
+        <v>1.055673373388888</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045245362512001</v>
+        <v>1.037456687291806</v>
       </c>
       <c r="J13">
-        <v>1.017639958796941</v>
+        <v>1.042101180660921</v>
       </c>
       <c r="K13">
-        <v>1.028143875124442</v>
+        <v>1.047853669922846</v>
       </c>
       <c r="L13">
-        <v>1.022610755608419</v>
+        <v>1.052492675604819</v>
       </c>
       <c r="M13">
-        <v>1.029515565002521</v>
+        <v>1.059203625745572</v>
       </c>
       <c r="N13">
-        <v>1.009632007858745</v>
+        <v>1.01793845576955</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9883005975457916</v>
+        <v>1.035639516590902</v>
       </c>
       <c r="D14">
-        <v>1.014028785283209</v>
+        <v>1.044417888729777</v>
       </c>
       <c r="E14">
-        <v>1.008490893302348</v>
+        <v>1.049100682419717</v>
       </c>
       <c r="F14">
-        <v>1.015548366551857</v>
+        <v>1.055839371048316</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045536325420093</v>
+        <v>1.037493108709935</v>
       </c>
       <c r="J14">
-        <v>1.018204679432928</v>
+        <v>1.042210310069386</v>
       </c>
       <c r="K14">
-        <v>1.028707529950793</v>
+        <v>1.047957750214615</v>
       </c>
       <c r="L14">
-        <v>1.023271202004179</v>
+        <v>1.052623557099168</v>
       </c>
       <c r="M14">
-        <v>1.030199494266943</v>
+        <v>1.059338092921818</v>
       </c>
       <c r="N14">
-        <v>1.009821548097817</v>
+        <v>1.017974910457613</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9888616191708329</v>
+        <v>1.035744333422255</v>
       </c>
       <c r="D15">
-        <v>1.01446973913695</v>
+        <v>1.044501619113832</v>
       </c>
       <c r="E15">
-        <v>1.008993332667719</v>
+        <v>1.049200902299059</v>
       </c>
       <c r="F15">
-        <v>1.016064399652942</v>
+        <v>1.055941659357266</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045714595637236</v>
+        <v>1.037515505455379</v>
       </c>
       <c r="J15">
-        <v>1.018551279787184</v>
+        <v>1.042277541062932</v>
       </c>
       <c r="K15">
-        <v>1.029053399424184</v>
+        <v>1.04802185805489</v>
       </c>
       <c r="L15">
-        <v>1.023676621112928</v>
+        <v>1.052704196889892</v>
       </c>
       <c r="M15">
-        <v>1.030619311842021</v>
+        <v>1.059420938989119</v>
       </c>
       <c r="N15">
-        <v>1.009937879251661</v>
+        <v>1.017997367969513</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9920955506416883</v>
+        <v>1.036354525756309</v>
       </c>
       <c r="D16">
-        <v>1.017012314465698</v>
+        <v>1.044988915524613</v>
       </c>
       <c r="E16">
-        <v>1.011892064279561</v>
+        <v>1.049784449575712</v>
       </c>
       <c r="F16">
-        <v>1.019041184190885</v>
+        <v>1.056537198955745</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046737127097566</v>
+        <v>1.037645196641679</v>
       </c>
       <c r="J16">
-        <v>1.020548528087541</v>
+        <v>1.042668743470866</v>
       </c>
       <c r="K16">
-        <v>1.031045256649369</v>
+        <v>1.048394695570563</v>
       </c>
       <c r="L16">
-        <v>1.026013815836066</v>
+        <v>1.053173545255156</v>
       </c>
       <c r="M16">
-        <v>1.033039255230722</v>
+        <v>1.059903083276516</v>
       </c>
       <c r="N16">
-        <v>1.010608219225749</v>
+        <v>1.018128027892014</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9940971166346936</v>
+        <v>1.036737382436612</v>
       </c>
       <c r="D17">
-        <v>1.018586577615123</v>
+        <v>1.045294538191271</v>
       </c>
       <c r="E17">
-        <v>1.013688300635415</v>
+        <v>1.050150690070057</v>
       </c>
       <c r="F17">
-        <v>1.020885456233541</v>
+        <v>1.056910920631883</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047365481406723</v>
+        <v>1.037725960098955</v>
       </c>
       <c r="J17">
-        <v>1.021784039227926</v>
+        <v>1.042914036039829</v>
       </c>
       <c r="K17">
-        <v>1.032276380433365</v>
+        <v>1.04862830368679</v>
       </c>
       <c r="L17">
-        <v>1.027460506876538</v>
+        <v>1.053467945528465</v>
       </c>
       <c r="M17">
-        <v>1.034536936273243</v>
+        <v>1.060205469907378</v>
       </c>
       <c r="N17">
-        <v>1.011022887250294</v>
+        <v>1.018209940937706</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9952551414124898</v>
+        <v>1.036960731818386</v>
       </c>
       <c r="D18">
-        <v>1.019497570052182</v>
+        <v>1.04547278596061</v>
       </c>
       <c r="E18">
-        <v>1.014728279027391</v>
+        <v>1.050364382520109</v>
       </c>
       <c r="F18">
-        <v>1.021953125968574</v>
+        <v>1.057128961835547</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047727373276407</v>
+        <v>1.037772855829567</v>
       </c>
       <c r="J18">
-        <v>1.022498610052866</v>
+        <v>1.043057075367828</v>
       </c>
       <c r="K18">
-        <v>1.032988028153319</v>
+        <v>1.048764468287558</v>
       </c>
       <c r="L18">
-        <v>1.028297535443355</v>
+        <v>1.05363966051054</v>
       </c>
       <c r="M18">
-        <v>1.035403381930544</v>
+        <v>1.060381828691041</v>
       </c>
       <c r="N18">
-        <v>1.011262710380233</v>
+        <v>1.018257702592715</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9956484193555707</v>
+        <v>1.037036894200354</v>
       </c>
       <c r="D19">
-        <v>1.019806982466164</v>
+        <v>1.045533560966029</v>
       </c>
       <c r="E19">
-        <v>1.015081592392025</v>
+        <v>1.050437258061835</v>
       </c>
       <c r="F19">
-        <v>1.022315826465121</v>
+        <v>1.057203317662339</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047849994037493</v>
+        <v>1.037788810047495</v>
       </c>
       <c r="J19">
-        <v>1.022741243012325</v>
+        <v>1.043105842009122</v>
       </c>
       <c r="K19">
-        <v>1.033229602517319</v>
+        <v>1.048810880747341</v>
       </c>
       <c r="L19">
-        <v>1.028581803269818</v>
+        <v>1.053698210225714</v>
       </c>
       <c r="M19">
-        <v>1.035697625698692</v>
+        <v>1.06044195935995</v>
       </c>
       <c r="N19">
-        <v>1.011344141588762</v>
+        <v>1.018273985218053</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9938833515212139</v>
+        <v>1.036696301856237</v>
       </c>
       <c r="D20">
-        <v>1.018418427917434</v>
+        <v>1.04526174949698</v>
       </c>
       <c r="E20">
-        <v>1.013496386365157</v>
+        <v>1.050111388624773</v>
       </c>
       <c r="F20">
-        <v>1.020688422155782</v>
+        <v>1.056870818066729</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047298544375544</v>
+        <v>1.037717316891999</v>
       </c>
       <c r="J20">
-        <v>1.021652113101624</v>
+        <v>1.042887722153721</v>
       </c>
       <c r="K20">
-        <v>1.032144962647752</v>
+        <v>1.048603249573095</v>
       </c>
       <c r="L20">
-        <v>1.027305998102118</v>
+        <v>1.053436359543546</v>
       </c>
       <c r="M20">
-        <v>1.034376990444251</v>
+        <v>1.060173028561741</v>
       </c>
       <c r="N20">
-        <v>1.010978610021529</v>
+        <v>1.018201154182765</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9880318967087048</v>
+        <v>1.035589422357923</v>
       </c>
       <c r="D21">
-        <v>1.013817605320802</v>
+        <v>1.044377869685803</v>
       </c>
       <c r="E21">
-        <v>1.008250295494298</v>
+        <v>1.049052787226138</v>
       </c>
       <c r="F21">
-        <v>1.015301252642458</v>
+        <v>1.055790486441482</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0454508532852</v>
+        <v>1.03748239261123</v>
       </c>
       <c r="J21">
-        <v>1.018038663929909</v>
+        <v>1.042178175684885</v>
       </c>
       <c r="K21">
-        <v>1.028541843749846</v>
+        <v>1.04792710521579</v>
       </c>
       <c r="L21">
-        <v>1.023077031333927</v>
+        <v>1.052585015888354</v>
       </c>
       <c r="M21">
-        <v>1.029998423115049</v>
+        <v>1.059298496437811</v>
       </c>
       <c r="N21">
-        <v>1.00976582745058</v>
+        <v>1.017964176173499</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9842616691484284</v>
+        <v>1.034893807365584</v>
       </c>
       <c r="D22">
-        <v>1.010855519323769</v>
+        <v>1.043821996160299</v>
       </c>
       <c r="E22">
-        <v>1.004877463199099</v>
+        <v>1.048387845160625</v>
       </c>
       <c r="F22">
-        <v>1.011836635209976</v>
+        <v>1.055111747861009</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044245625825449</v>
+        <v>1.03733277823287</v>
       </c>
       <c r="J22">
-        <v>1.015708519634127</v>
+        <v>1.041731739110944</v>
       </c>
       <c r="K22">
-        <v>1.026214950636869</v>
+        <v>1.04750113594184</v>
       </c>
       <c r="L22">
-        <v>1.020352911894115</v>
+        <v>1.052049714690507</v>
       </c>
       <c r="M22">
-        <v>1.027177197263117</v>
+        <v>1.058748485540699</v>
       </c>
       <c r="N22">
-        <v>1.008983748605225</v>
+        <v>1.017815028939213</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9862692858898606</v>
+        <v>1.035262535133791</v>
       </c>
       <c r="D23">
-        <v>1.012432557797509</v>
+        <v>1.044116688431113</v>
       </c>
       <c r="E23">
-        <v>1.006672756825952</v>
+        <v>1.048740282279773</v>
       </c>
       <c r="F23">
-        <v>1.013680885058954</v>
+        <v>1.055471511447007</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044888761229503</v>
+        <v>1.037412272333851</v>
       </c>
       <c r="J23">
-        <v>1.016949466108397</v>
+        <v>1.041968433355004</v>
       </c>
       <c r="K23">
-        <v>1.027454479226866</v>
+        <v>1.047727030643019</v>
       </c>
       <c r="L23">
-        <v>1.021803397879674</v>
+        <v>1.052333490322684</v>
       </c>
       <c r="M23">
-        <v>1.028679456181782</v>
+        <v>1.059040071379413</v>
       </c>
       <c r="N23">
-        <v>1.00940025384571</v>
+        <v>1.017894108810926</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.993979971929784</v>
+        <v>1.036714864292313</v>
       </c>
       <c r="D24">
-        <v>1.018494429885975</v>
+        <v>1.045276565348418</v>
       </c>
       <c r="E24">
-        <v>1.013583128020089</v>
+        <v>1.050129147038198</v>
       </c>
       <c r="F24">
-        <v>1.020777478240622</v>
+        <v>1.056888938517758</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047328804585049</v>
+        <v>1.037721223040948</v>
       </c>
       <c r="J24">
-        <v>1.021711743598465</v>
+        <v>1.042899612376443</v>
       </c>
       <c r="K24">
-        <v>1.032204364572662</v>
+        <v>1.04861457074239</v>
       </c>
       <c r="L24">
-        <v>1.02737583494529</v>
+        <v>1.053450631902043</v>
       </c>
       <c r="M24">
-        <v>1.034449285059916</v>
+        <v>1.060187687465754</v>
       </c>
       <c r="N24">
-        <v>1.010998623305441</v>
+        <v>1.018205124591144</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.002559448166213</v>
+        <v>1.038401604247778</v>
       </c>
       <c r="D25">
-        <v>1.025246283649113</v>
+        <v>1.046621876234527</v>
       </c>
       <c r="E25">
-        <v>1.021300779758223</v>
+        <v>1.051743611725325</v>
       </c>
       <c r="F25">
-        <v>1.02869845917459</v>
+        <v>1.058535963776689</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049980056728647</v>
+        <v>1.038071415808021</v>
       </c>
       <c r="J25">
-        <v>1.02700098261849</v>
+        <v>1.043978791610808</v>
       </c>
       <c r="K25">
-        <v>1.037464928983805</v>
+        <v>1.049640779362278</v>
       </c>
       <c r="L25">
-        <v>1.033577188580578</v>
+        <v>1.05474686358773</v>
       </c>
       <c r="M25">
-        <v>1.040867024117533</v>
+        <v>1.061518713825345</v>
       </c>
       <c r="N25">
-        <v>1.012773671760324</v>
+        <v>1.018565379496608</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_94/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_94/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039748046762647</v>
+        <v>1.009133850419201</v>
       </c>
       <c r="D2">
-        <v>1.047694317005407</v>
+        <v>1.030422984032381</v>
       </c>
       <c r="E2">
-        <v>1.05303349684609</v>
+        <v>1.027235695757716</v>
       </c>
       <c r="F2">
-        <v>1.059851346094653</v>
+        <v>1.034785904337985</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03834399213758</v>
+        <v>1.051958413008891</v>
       </c>
       <c r="J2">
-        <v>1.044838385046212</v>
+        <v>1.031044759926262</v>
       </c>
       <c r="K2">
-        <v>1.050456238647997</v>
+        <v>1.041474144607133</v>
       </c>
       <c r="L2">
-        <v>1.055780583095578</v>
+        <v>1.038328198887155</v>
       </c>
       <c r="M2">
-        <v>1.062579723669453</v>
+        <v>1.045780989211528</v>
       </c>
       <c r="N2">
-        <v>1.018852173824719</v>
+        <v>1.014130458694759</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040726314777273</v>
+        <v>1.013764440086015</v>
       </c>
       <c r="D3">
-        <v>1.048472650231064</v>
+        <v>1.034069463247961</v>
       </c>
       <c r="E3">
-        <v>1.05397132229688</v>
+        <v>1.031427075268028</v>
       </c>
       <c r="F3">
-        <v>1.060807409537149</v>
+        <v>1.039082733041338</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03853798902463</v>
+        <v>1.053319913942114</v>
       </c>
       <c r="J3">
-        <v>1.045461842691475</v>
+        <v>1.033886778292485</v>
       </c>
       <c r="K3">
-        <v>1.051046554627963</v>
+        <v>1.044284215034218</v>
       </c>
       <c r="L3">
-        <v>1.056531052649202</v>
+        <v>1.041673032028461</v>
       </c>
       <c r="M3">
-        <v>1.063349739224914</v>
+        <v>1.049238820578909</v>
       </c>
       <c r="N3">
-        <v>1.019060091420595</v>
+        <v>1.015083791258635</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>1.041359608897503</v>
+        <v>1.016698424168667</v>
       </c>
       <c r="D4">
-        <v>1.04897611339514</v>
+        <v>1.03637966870698</v>
       </c>
       <c r="E4">
-        <v>1.054578732856905</v>
+        <v>1.034087683349044</v>
       </c>
       <c r="F4">
-        <v>1.061426493631996</v>
+        <v>1.041809210086818</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038661701488782</v>
+        <v>1.054167439440149</v>
       </c>
       <c r="J4">
-        <v>1.045864941083136</v>
+        <v>1.035684417429142</v>
       </c>
       <c r="K4">
-        <v>1.051427699749322</v>
+        <v>1.046057988217232</v>
       </c>
       <c r="L4">
-        <v>1.057016604298479</v>
+        <v>1.043791396649855</v>
       </c>
       <c r="M4">
-        <v>1.06384781341129</v>
+        <v>1.051427920995558</v>
       </c>
       <c r="N4">
-        <v>1.019194478014975</v>
+        <v>1.015686664860682</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041625914287945</v>
+        <v>1.017917489826537</v>
       </c>
       <c r="D5">
-        <v>1.049187727247312</v>
+        <v>1.037339441946301</v>
       </c>
       <c r="E5">
-        <v>1.054834224734483</v>
+        <v>1.035194301976017</v>
       </c>
       <c r="F5">
-        <v>1.061686862445847</v>
+        <v>1.042942966528948</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038713274691157</v>
+        <v>1.054515900365417</v>
       </c>
       <c r="J5">
-        <v>1.046034326125016</v>
+        <v>1.036430557715441</v>
       </c>
       <c r="K5">
-        <v>1.051587733762158</v>
+        <v>1.046793327460456</v>
       </c>
       <c r="L5">
-        <v>1.057220716717538</v>
+        <v>1.04467130666126</v>
       </c>
       <c r="M5">
-        <v>1.064057160293259</v>
+        <v>1.052337009417077</v>
       </c>
       <c r="N5">
-        <v>1.019250937912808</v>
+        <v>1.015936863243663</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041670632133337</v>
+        <v>1.018121348108761</v>
       </c>
       <c r="D6">
-        <v>1.049223255641274</v>
+        <v>1.037499931771302</v>
       </c>
       <c r="E6">
-        <v>1.054877130915304</v>
+        <v>1.035379422251036</v>
       </c>
       <c r="F6">
-        <v>1.061730585688692</v>
+        <v>1.043132611253126</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038721908500968</v>
+        <v>1.054573953612144</v>
       </c>
       <c r="J6">
-        <v>1.046062762049092</v>
+        <v>1.036555284443324</v>
       </c>
       <c r="K6">
-        <v>1.051614592455765</v>
+        <v>1.046916195528073</v>
       </c>
       <c r="L6">
-        <v>1.057254987271404</v>
+        <v>1.044818432832969</v>
       </c>
       <c r="M6">
-        <v>1.064092307974283</v>
+        <v>1.052489002313329</v>
       </c>
       <c r="N6">
-        <v>1.019260415644495</v>
+        <v>1.015978684932826</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041363167014737</v>
+        <v>1.016714769200172</v>
       </c>
       <c r="D7">
-        <v>1.048978941156647</v>
+        <v>1.036392537709723</v>
       </c>
       <c r="E7">
-        <v>1.054582146217032</v>
+        <v>1.034102516253781</v>
       </c>
       <c r="F7">
-        <v>1.061429972278362</v>
+        <v>1.041824407767264</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038662392324542</v>
+        <v>1.054172126173053</v>
       </c>
       <c r="J7">
-        <v>1.045867204719999</v>
+        <v>1.035694424665295</v>
       </c>
       <c r="K7">
-        <v>1.051429838916371</v>
+        <v>1.046067854150337</v>
       </c>
       <c r="L7">
-        <v>1.057019331712856</v>
+        <v>1.043803195443465</v>
       </c>
       <c r="M7">
-        <v>1.063850610886842</v>
+        <v>1.051440111854143</v>
       </c>
       <c r="N7">
-        <v>1.01919523257764</v>
+        <v>1.015690020662491</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040078596686323</v>
+        <v>1.010712015657592</v>
       </c>
       <c r="D8">
-        <v>1.047957392912844</v>
+        <v>1.031665766268528</v>
       </c>
       <c r="E8">
-        <v>1.053350319659595</v>
+        <v>1.028663118338136</v>
       </c>
       <c r="F8">
-        <v>1.060174358924285</v>
+        <v>1.036249461052557</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038409930024396</v>
+        <v>1.052425571854626</v>
       </c>
       <c r="J8">
-        <v>1.045049151324848</v>
+        <v>1.03201398347994</v>
       </c>
       <c r="K8">
-        <v>1.050655909715233</v>
+        <v>1.042433230449216</v>
       </c>
       <c r="L8">
-        <v>1.056034218051828</v>
+        <v>1.039468337351411</v>
       </c>
       <c r="M8">
-        <v>1.062839990130493</v>
+        <v>1.046959816038729</v>
       </c>
       <c r="N8">
-        <v>1.01892247141613</v>
+        <v>1.014455602453405</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037817266637019</v>
+        <v>0.9996314857556429</v>
       </c>
       <c r="D9">
-        <v>1.046156043444106</v>
+        <v>1.022941420348121</v>
       </c>
       <c r="E9">
-        <v>1.051184135404372</v>
+        <v>1.018663500845626</v>
       </c>
       <c r="F9">
-        <v>1.057965283892495</v>
+        <v>1.025992295484698</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037951175198821</v>
+        <v>1.049083514810758</v>
       </c>
       <c r="J9">
-        <v>1.043605218730754</v>
+        <v>1.025197263925267</v>
       </c>
       <c r="K9">
-        <v>1.049285842981846</v>
+        <v>1.035672940036765</v>
       </c>
       <c r="L9">
-        <v>1.054297963381674</v>
+        <v>1.03146086287381</v>
       </c>
       <c r="M9">
-        <v>1.061057834522831</v>
+        <v>1.038677286059521</v>
       </c>
       <c r="N9">
-        <v>1.018440696557723</v>
+        <v>1.012168387012522</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036311264091208</v>
+        <v>0.9918680556291118</v>
       </c>
       <c r="D10">
-        <v>1.044954374980873</v>
+        <v>1.016833413584932</v>
       </c>
       <c r="E10">
-        <v>1.049743070447119</v>
+        <v>1.011688010248715</v>
       </c>
       <c r="F10">
-        <v>1.056494972367548</v>
+        <v>1.018831656966147</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037636040890978</v>
+        <v>1.04666548612572</v>
       </c>
       <c r="J10">
-        <v>1.042641018239332</v>
+        <v>1.020408069362179</v>
       </c>
       <c r="K10">
-        <v>1.048368282763213</v>
+        <v>1.030905244595021</v>
       </c>
       <c r="L10">
-        <v>1.053140274708251</v>
+        <v>1.025849392748119</v>
       </c>
       <c r="M10">
-        <v>1.059868908233322</v>
+        <v>1.03286902547181</v>
       </c>
       <c r="N10">
-        <v>1.018118768657838</v>
+        <v>1.010561077297419</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035659523956296</v>
+        <v>0.988407810891533</v>
       </c>
       <c r="D11">
-        <v>1.044433871671409</v>
+        <v>1.014113050072606</v>
       </c>
       <c r="E11">
-        <v>1.049119811872187</v>
+        <v>1.008586901512017</v>
       </c>
       <c r="F11">
-        <v>1.055858895510704</v>
+        <v>1.015646973755946</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037497386456943</v>
+        <v>1.045570413170266</v>
       </c>
       <c r="J11">
-        <v>1.042223143784029</v>
+        <v>1.018270918603981</v>
       </c>
       <c r="K11">
-        <v>1.047969988492163</v>
+        <v>1.028773633989498</v>
       </c>
       <c r="L11">
-        <v>1.052638949941539</v>
+        <v>1.023348678159217</v>
       </c>
       <c r="M11">
-        <v>1.059353907081846</v>
+        <v>1.030279722975646</v>
       </c>
       <c r="N11">
-        <v>1.017979197428263</v>
+        <v>1.009843780285538</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035417494618933</v>
+        <v>0.9871068432822161</v>
       </c>
       <c r="D12">
-        <v>1.044240508718657</v>
+        <v>1.013090651852122</v>
       </c>
       <c r="E12">
-        <v>1.048888416876817</v>
+        <v>1.007422215234052</v>
       </c>
       <c r="F12">
-        <v>1.055622716094655</v>
+        <v>1.014450713115929</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037445554173269</v>
+        <v>1.045156160038126</v>
       </c>
       <c r="J12">
-        <v>1.042067871833147</v>
+        <v>1.017467068675291</v>
       </c>
       <c r="K12">
-        <v>1.047821897195548</v>
+        <v>1.027971280738368</v>
       </c>
       <c r="L12">
-        <v>1.052452730750161</v>
+        <v>1.022408585533622</v>
       </c>
       <c r="M12">
-        <v>1.059162585364358</v>
+        <v>1.029306199941823</v>
       </c>
       <c r="N12">
-        <v>1.017927328551582</v>
+        <v>1.009573979765453</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035469408192008</v>
+        <v>0.9873866292659352</v>
       </c>
       <c r="D13">
-        <v>1.044281986834707</v>
+        <v>1.013310509593004</v>
       </c>
       <c r="E13">
-        <v>1.048938046850164</v>
+        <v>1.007672634841902</v>
       </c>
       <c r="F13">
-        <v>1.055673373388888</v>
+        <v>1.014707929894303</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037456687291806</v>
+        <v>1.045245362512001</v>
       </c>
       <c r="J13">
-        <v>1.042101180660921</v>
+        <v>1.017639958796941</v>
       </c>
       <c r="K13">
-        <v>1.047853669922846</v>
+        <v>1.028143875124442</v>
       </c>
       <c r="L13">
-        <v>1.052492675604819</v>
+        <v>1.022610755608419</v>
       </c>
       <c r="M13">
-        <v>1.059203625745572</v>
+        <v>1.029515565002521</v>
       </c>
       <c r="N13">
-        <v>1.01793845576955</v>
+        <v>1.009632007858745</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035639516590902</v>
+        <v>0.9883005975457909</v>
       </c>
       <c r="D14">
-        <v>1.044417888729777</v>
+        <v>1.014028785283209</v>
       </c>
       <c r="E14">
-        <v>1.049100682419717</v>
+        <v>1.008490893302347</v>
       </c>
       <c r="F14">
-        <v>1.055839371048316</v>
+        <v>1.015548366551856</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037493108709935</v>
+        <v>1.045536325420093</v>
       </c>
       <c r="J14">
-        <v>1.042210310069386</v>
+        <v>1.018204679432927</v>
       </c>
       <c r="K14">
-        <v>1.047957750214615</v>
+        <v>1.028707529950793</v>
       </c>
       <c r="L14">
-        <v>1.052623557099168</v>
+        <v>1.023271202004178</v>
       </c>
       <c r="M14">
-        <v>1.059338092921818</v>
+        <v>1.030199494266943</v>
       </c>
       <c r="N14">
-        <v>1.017974910457613</v>
+        <v>1.009821548097817</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035744333422255</v>
+        <v>0.9888616191708329</v>
       </c>
       <c r="D15">
-        <v>1.044501619113832</v>
+        <v>1.01446973913695</v>
       </c>
       <c r="E15">
-        <v>1.049200902299059</v>
+        <v>1.008993332667719</v>
       </c>
       <c r="F15">
-        <v>1.055941659357266</v>
+        <v>1.016064399652942</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037515505455379</v>
+        <v>1.045714595637236</v>
       </c>
       <c r="J15">
-        <v>1.042277541062932</v>
+        <v>1.018551279787184</v>
       </c>
       <c r="K15">
-        <v>1.04802185805489</v>
+        <v>1.029053399424184</v>
       </c>
       <c r="L15">
-        <v>1.052704196889892</v>
+        <v>1.023676621112928</v>
       </c>
       <c r="M15">
-        <v>1.059420938989119</v>
+        <v>1.030619311842021</v>
       </c>
       <c r="N15">
-        <v>1.017997367969513</v>
+        <v>1.009937879251661</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036354525756309</v>
+        <v>0.9920955506416879</v>
       </c>
       <c r="D16">
-        <v>1.044988915524613</v>
+        <v>1.017012314465697</v>
       </c>
       <c r="E16">
-        <v>1.049784449575712</v>
+        <v>1.011892064279561</v>
       </c>
       <c r="F16">
-        <v>1.056537198955745</v>
+        <v>1.019041184190884</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037645196641679</v>
+        <v>1.046737127097565</v>
       </c>
       <c r="J16">
-        <v>1.042668743470866</v>
+        <v>1.020548528087541</v>
       </c>
       <c r="K16">
-        <v>1.048394695570563</v>
+        <v>1.031045256649369</v>
       </c>
       <c r="L16">
-        <v>1.053173545255156</v>
+        <v>1.026013815836065</v>
       </c>
       <c r="M16">
-        <v>1.059903083276516</v>
+        <v>1.033039255230722</v>
       </c>
       <c r="N16">
-        <v>1.018128027892014</v>
+        <v>1.010608219225749</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036737382436612</v>
+        <v>0.9940971166346944</v>
       </c>
       <c r="D17">
-        <v>1.045294538191271</v>
+        <v>1.018586577615124</v>
       </c>
       <c r="E17">
-        <v>1.050150690070057</v>
+        <v>1.013688300635416</v>
       </c>
       <c r="F17">
-        <v>1.056910920631883</v>
+        <v>1.020885456233542</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037725960098955</v>
+        <v>1.047365481406723</v>
       </c>
       <c r="J17">
-        <v>1.042914036039829</v>
+        <v>1.021784039227926</v>
       </c>
       <c r="K17">
-        <v>1.04862830368679</v>
+        <v>1.032276380433365</v>
       </c>
       <c r="L17">
-        <v>1.053467945528465</v>
+        <v>1.027460506876538</v>
       </c>
       <c r="M17">
-        <v>1.060205469907378</v>
+        <v>1.034536936273244</v>
       </c>
       <c r="N17">
-        <v>1.018209940937706</v>
+        <v>1.011022887250295</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036960731818386</v>
+        <v>0.9952551414124901</v>
       </c>
       <c r="D18">
-        <v>1.04547278596061</v>
+        <v>1.019497570052182</v>
       </c>
       <c r="E18">
-        <v>1.050364382520109</v>
+        <v>1.014728279027391</v>
       </c>
       <c r="F18">
-        <v>1.057128961835547</v>
+        <v>1.021953125968574</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037772855829567</v>
+        <v>1.047727373276407</v>
       </c>
       <c r="J18">
-        <v>1.043057075367828</v>
+        <v>1.022498610052867</v>
       </c>
       <c r="K18">
-        <v>1.048764468287558</v>
+        <v>1.03298802815332</v>
       </c>
       <c r="L18">
-        <v>1.05363966051054</v>
+        <v>1.028297535443355</v>
       </c>
       <c r="M18">
-        <v>1.060381828691041</v>
+        <v>1.035403381930544</v>
       </c>
       <c r="N18">
-        <v>1.018257702592715</v>
+        <v>1.011262710380233</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037036894200354</v>
+        <v>0.9956484193555712</v>
       </c>
       <c r="D19">
-        <v>1.045533560966029</v>
+        <v>1.019806982466164</v>
       </c>
       <c r="E19">
-        <v>1.050437258061835</v>
+        <v>1.015081592392026</v>
       </c>
       <c r="F19">
-        <v>1.057203317662339</v>
+        <v>1.022315826465122</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037788810047495</v>
+        <v>1.047849994037494</v>
       </c>
       <c r="J19">
-        <v>1.043105842009122</v>
+        <v>1.022741243012325</v>
       </c>
       <c r="K19">
-        <v>1.048810880747341</v>
+        <v>1.03322960251732</v>
       </c>
       <c r="L19">
-        <v>1.053698210225714</v>
+        <v>1.028581803269819</v>
       </c>
       <c r="M19">
-        <v>1.06044195935995</v>
+        <v>1.035697625698693</v>
       </c>
       <c r="N19">
-        <v>1.018273985218053</v>
+        <v>1.011344141588762</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036696301856237</v>
+        <v>0.9938833515212132</v>
       </c>
       <c r="D20">
-        <v>1.04526174949698</v>
+        <v>1.018418427917434</v>
       </c>
       <c r="E20">
-        <v>1.050111388624773</v>
+        <v>1.013496386365156</v>
       </c>
       <c r="F20">
-        <v>1.056870818066729</v>
+        <v>1.020688422155781</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037717316891999</v>
+        <v>1.047298544375543</v>
       </c>
       <c r="J20">
-        <v>1.042887722153721</v>
+        <v>1.021652113101623</v>
       </c>
       <c r="K20">
-        <v>1.048603249573095</v>
+        <v>1.032144962647751</v>
       </c>
       <c r="L20">
-        <v>1.053436359543546</v>
+        <v>1.027305998102118</v>
       </c>
       <c r="M20">
-        <v>1.060173028561741</v>
+        <v>1.03437699044425</v>
       </c>
       <c r="N20">
-        <v>1.018201154182765</v>
+        <v>1.010978610021529</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035589422357923</v>
+        <v>0.9880318967087047</v>
       </c>
       <c r="D21">
-        <v>1.044377869685803</v>
+        <v>1.013817605320802</v>
       </c>
       <c r="E21">
-        <v>1.049052787226138</v>
+        <v>1.008250295494298</v>
       </c>
       <c r="F21">
-        <v>1.055790486441482</v>
+        <v>1.015301252642458</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03748239261123</v>
+        <v>1.0454508532852</v>
       </c>
       <c r="J21">
-        <v>1.042178175684885</v>
+        <v>1.018038663929909</v>
       </c>
       <c r="K21">
-        <v>1.04792710521579</v>
+        <v>1.028541843749846</v>
       </c>
       <c r="L21">
-        <v>1.052585015888354</v>
+        <v>1.023077031333927</v>
       </c>
       <c r="M21">
-        <v>1.059298496437811</v>
+        <v>1.029998423115049</v>
       </c>
       <c r="N21">
-        <v>1.017964176173499</v>
+        <v>1.00976582745058</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034893807365584</v>
+        <v>0.9842616691484295</v>
       </c>
       <c r="D22">
-        <v>1.043821996160299</v>
+        <v>1.01085551932377</v>
       </c>
       <c r="E22">
-        <v>1.048387845160625</v>
+        <v>1.0048774631991</v>
       </c>
       <c r="F22">
-        <v>1.055111747861009</v>
+        <v>1.011836635209977</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03733277823287</v>
+        <v>1.04424562582545</v>
       </c>
       <c r="J22">
-        <v>1.041731739110944</v>
+        <v>1.015708519634128</v>
       </c>
       <c r="K22">
-        <v>1.04750113594184</v>
+        <v>1.02621495063687</v>
       </c>
       <c r="L22">
-        <v>1.052049714690507</v>
+        <v>1.020352911894116</v>
       </c>
       <c r="M22">
-        <v>1.058748485540699</v>
+        <v>1.027177197263118</v>
       </c>
       <c r="N22">
-        <v>1.017815028939213</v>
+        <v>1.008983748605225</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035262535133791</v>
+        <v>0.9862692858898608</v>
       </c>
       <c r="D23">
-        <v>1.044116688431113</v>
+        <v>1.012432557797509</v>
       </c>
       <c r="E23">
-        <v>1.048740282279773</v>
+        <v>1.006672756825953</v>
       </c>
       <c r="F23">
-        <v>1.055471511447007</v>
+        <v>1.013680885058954</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037412272333851</v>
+        <v>1.044888761229504</v>
       </c>
       <c r="J23">
-        <v>1.041968433355004</v>
+        <v>1.016949466108397</v>
       </c>
       <c r="K23">
-        <v>1.047727030643019</v>
+        <v>1.027454479226867</v>
       </c>
       <c r="L23">
-        <v>1.052333490322684</v>
+        <v>1.021803397879675</v>
       </c>
       <c r="M23">
-        <v>1.059040071379413</v>
+        <v>1.028679456181783</v>
       </c>
       <c r="N23">
-        <v>1.017894108810926</v>
+        <v>1.00940025384571</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036714864292313</v>
+        <v>0.9939799719297836</v>
       </c>
       <c r="D24">
-        <v>1.045276565348418</v>
+        <v>1.018494429885975</v>
       </c>
       <c r="E24">
-        <v>1.050129147038198</v>
+        <v>1.013583128020089</v>
       </c>
       <c r="F24">
-        <v>1.056888938517758</v>
+        <v>1.020777478240621</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037721223040948</v>
+        <v>1.047328804585048</v>
       </c>
       <c r="J24">
-        <v>1.042899612376443</v>
+        <v>1.021711743598464</v>
       </c>
       <c r="K24">
-        <v>1.04861457074239</v>
+        <v>1.032204364572661</v>
       </c>
       <c r="L24">
-        <v>1.053450631902043</v>
+        <v>1.02737583494529</v>
       </c>
       <c r="M24">
-        <v>1.060187687465754</v>
+        <v>1.034449285059915</v>
       </c>
       <c r="N24">
-        <v>1.018205124591144</v>
+        <v>1.010998623305441</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038401604247778</v>
+        <v>1.002559448166212</v>
       </c>
       <c r="D25">
-        <v>1.046621876234527</v>
+        <v>1.025246283649113</v>
       </c>
       <c r="E25">
-        <v>1.051743611725325</v>
+        <v>1.021300779758223</v>
       </c>
       <c r="F25">
-        <v>1.058535963776689</v>
+        <v>1.02869845917459</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038071415808021</v>
+        <v>1.049980056728647</v>
       </c>
       <c r="J25">
-        <v>1.043978791610808</v>
+        <v>1.02700098261849</v>
       </c>
       <c r="K25">
-        <v>1.049640779362278</v>
+        <v>1.037464928983805</v>
       </c>
       <c r="L25">
-        <v>1.05474686358773</v>
+        <v>1.033577188580578</v>
       </c>
       <c r="M25">
-        <v>1.061518713825345</v>
+        <v>1.040867024117533</v>
       </c>
       <c r="N25">
-        <v>1.018565379496608</v>
+        <v>1.012773671760324</v>
       </c>
     </row>
   </sheetData>
